--- a/data/yangsan_river.xlsx
+++ b/data/yangsan_river.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\sub_daily_etp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\sub_daily_etp\new_api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A2278-072D-4D48-9117-BD5D4BBB9234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C88C9-CB19-4AF8-92DC-71E7602933AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47FFE701-48A9-4C7F-A49E-9B1CEEFFDE55}"/>
+    <workbookView xWindow="-28485" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{47FFE701-48A9-4C7F-A49E-9B1CEEFFDE55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:K2923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>

--- a/data/yangsan_river.xlsx
+++ b/data/yangsan_river.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\sub_daily_etp\new_api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\sub_daily_etp\ETUtil\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C88C9-CB19-4AF8-92DC-71E7602933AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B0F08-120F-4268-9D1D-6595E42DA953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28485" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{47FFE701-48A9-4C7F-A49E-9B1CEEFFDE55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47FFE701-48A9-4C7F-A49E-9B1CEEFFDE55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD128C90-B2B8-4252-BF1B-F196560F0C84}">
   <dimension ref="A1:K2923"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A2901" workbookViewId="0">
+      <selection activeCell="J2923" sqref="J2923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76182,7 +76183,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="2913" spans="1:8">
+    <row r="2913" spans="1:10">
       <c r="A2913" s="4">
         <v>43090</v>
       </c>
@@ -76208,7 +76209,7 @@
         <v>3.8719999999999997E-2</v>
       </c>
     </row>
-    <row r="2914" spans="1:8">
+    <row r="2914" spans="1:10">
       <c r="A2914" s="4">
         <v>43091</v>
       </c>
@@ -76234,7 +76235,7 @@
         <v>4.5839999999999999E-2</v>
       </c>
     </row>
-    <row r="2915" spans="1:8">
+    <row r="2915" spans="1:10">
       <c r="A2915" s="4">
         <v>43092</v>
       </c>
@@ -76260,7 +76261,7 @@
         <v>5.3469999999999997E-2</v>
       </c>
     </row>
-    <row r="2916" spans="1:8">
+    <row r="2916" spans="1:10">
       <c r="A2916" s="4">
         <v>43093</v>
       </c>
@@ -76286,7 +76287,7 @@
         <v>4.6489999999999997E-2</v>
       </c>
     </row>
-    <row r="2917" spans="1:8">
+    <row r="2917" spans="1:10">
       <c r="A2917" s="4">
         <v>43094</v>
       </c>
@@ -76312,7 +76313,7 @@
         <v>2.733E-2</v>
       </c>
     </row>
-    <row r="2918" spans="1:8">
+    <row r="2918" spans="1:10">
       <c r="A2918" s="4">
         <v>43095</v>
       </c>
@@ -76338,7 +76339,7 @@
         <v>3.5389999999999998E-2</v>
       </c>
     </row>
-    <row r="2919" spans="1:8">
+    <row r="2919" spans="1:10">
       <c r="A2919" s="4">
         <v>43096</v>
       </c>
@@ -76364,7 +76365,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="2920" spans="1:8">
+    <row r="2920" spans="1:10">
       <c r="A2920" s="4">
         <v>43097</v>
       </c>
@@ -76390,7 +76391,7 @@
         <v>3.8350000000000002E-2</v>
       </c>
     </row>
-    <row r="2921" spans="1:8">
+    <row r="2921" spans="1:10">
       <c r="A2921" s="4">
         <v>43098</v>
       </c>
@@ -76416,7 +76417,7 @@
         <v>4.2290000000000001E-2</v>
       </c>
     </row>
-    <row r="2922" spans="1:8">
+    <row r="2922" spans="1:10">
       <c r="A2922" s="4">
         <v>43099</v>
       </c>
@@ -76442,7 +76443,7 @@
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="2923" spans="1:8">
+    <row r="2923" spans="1:10">
       <c r="A2923" s="4">
         <v>43100</v>
       </c>
@@ -76466,6 +76467,10 @@
       </c>
       <c r="H2923" s="2">
         <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="J2923" s="6">
+        <f>SUM(H2:H2923)</f>
+        <v>375.59430099999986</v>
       </c>
     </row>
   </sheetData>
